--- a/excels/test-fromBeans.xlsx
+++ b/excels/test-fromBeans.xlsx
@@ -122,10 +122,6 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">

--- a/excels/test-fromBeans.xlsx
+++ b/excels/test-fromBeans.xlsx
@@ -45,7 +45,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
       <main:sz val="12"/>
       <main:color theme="1"/>
       <main:name val="等线"/>
@@ -53,7 +53,7 @@
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
       <main:sz val="12"/>
       <main:color theme="1"/>
       <main:name val="等线"/>
@@ -62,18 +62,21 @@
       <main:scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
       <main:patternFill patternType="solid">
         <main:fgColor rgb="FFFFFF00"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+      <main:patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -84,7 +87,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
       <main:left style="thin">
         <main:color indexed="64"/>
       </main:left>
@@ -105,11 +108,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" applyAlignment="1" applyBorder="true" applyFill="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" applyAlignment="1" applyBorder="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -117,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
